--- a/diagrams/gantt chart new.xlsx
+++ b/diagrams/gantt chart new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop D\3rd year\PUSL3190_MDCGunathilaka\diagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F17927C-C817-4580-8B6B-0E303DD0FFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87F962-CB4E-4D00-BA1A-E3F3F7E00934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{59E5ECE7-1840-4FFB-B715-8C66FA8485E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Background Research</t>
   </si>
@@ -156,13 +156,28 @@
   </si>
   <si>
     <t>Finalizing the Project</t>
+  </si>
+  <si>
+    <t>week21</t>
+  </si>
+  <si>
+    <t>week22</t>
+  </si>
+  <si>
+    <t>week23</t>
+  </si>
+  <si>
+    <t>week24</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,13 +209,8 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,14 +241,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -356,7 +360,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -365,7 +371,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -376,7 +384,9 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -384,10 +394,10 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -395,23 +405,10 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -420,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -442,8 +439,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -455,73 +450,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="0"/>
@@ -625,7 +568,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{814A7A3A-4CFC-4895-81D0-2E2E2894784E}" name="Table1" displayName="Table1" ref="B4:Z13" headerRowCount="0" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{814A7A3A-4CFC-4895-81D0-2E2E2894784E}" name="Table1" displayName="Table1" ref="B4:Z13" headerRowCount="0" tableBorderDxfId="4">
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{F806C940-FAFA-478B-9461-008CF10FD820}" name="Column1" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{1336C676-C2ED-464D-9FD5-D1DEF4CF24CC}" name="Column2"/>
@@ -639,28 +582,28 @@
     <tableColumn id="10" xr3:uid="{97839745-724D-457B-BDF4-C14567399CDC}" name="Column10"/>
     <tableColumn id="11" xr3:uid="{AB31D580-031A-412E-B2EE-D82E30940C67}" name="Column11"/>
     <tableColumn id="12" xr3:uid="{829A860C-79D8-4491-94E6-A3DC98C9412B}" name="Column12"/>
-    <tableColumn id="16" xr3:uid="{A7F8DB41-6FD5-4BAC-8F52-C9934A671BBF}" name="Column22" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{A7F8DB41-6FD5-4BAC-8F52-C9934A671BBF}" name="Column22" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{61AF59C8-A0D1-4FC7-8434-5CBD9D091398}" name="Column13"/>
     <tableColumn id="14" xr3:uid="{5C833549-23AF-4AF7-B978-7817CEE36E19}" name="Column14"/>
     <tableColumn id="15" xr3:uid="{51FA0926-8DA3-46F9-A185-15D9413E4CC3}" name="Column15"/>
-    <tableColumn id="17" xr3:uid="{1F6790A6-1253-4274-A288-0DE0AAA87C1E}" name="Column23" dataDxfId="4"/>
-    <tableColumn id="24" xr3:uid="{2F919550-33BC-40EE-85BE-BF1932287798}" name="Column16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{1F6790A6-1253-4274-A288-0DE0AAA87C1E}" name="Column23" dataDxfId="2"/>
+    <tableColumn id="24" xr3:uid="{2F919550-33BC-40EE-85BE-BF1932287798}" name="Column16" dataDxfId="1"/>
     <tableColumn id="25" xr3:uid="{95DBCF5B-B92A-41B4-A55C-FB16841FEDBC}" name="Column17"/>
     <tableColumn id="26" xr3:uid="{A5315839-8EAA-4641-9EC1-8C0121822EF3}" name="Column18"/>
-    <tableColumn id="18" xr3:uid="{38F5297D-A3B8-41B1-A347-862924BE902D}" name="Column24" dataDxfId="2"/>
-    <tableColumn id="27" xr3:uid="{730026DC-7542-4E77-965E-CED98ED17946}" name="Column19" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{38F5297D-A3B8-41B1-A347-862924BE902D}" name="Column24" dataDxfId="0"/>
+    <tableColumn id="27" xr3:uid="{730026DC-7542-4E77-965E-CED98ED17946}" name="Column19"/>
     <tableColumn id="28" xr3:uid="{7C32BD65-9BAE-4108-BEFA-53B802DE08B1}" name="Column20"/>
     <tableColumn id="29" xr3:uid="{F57EDE2A-6FF9-4604-BEEE-8C25D0AE9DDC}" name="Column21"/>
-    <tableColumn id="19" xr3:uid="{7F84A624-B02F-45AA-85C3-F942253AEE47}" name="Column25" dataDxfId="0"/>
+    <tableColumn id="19" xr3:uid="{7F84A624-B02F-45AA-85C3-F942253AEE47}" name="Column25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -698,7 +641,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -804,7 +747,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -946,7 +889,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -957,7 +900,7 @@
   <dimension ref="B3:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,37 +928,33 @@
   <sheetData>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>2023</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="17">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="15">
         <v>2024</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="28"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="27"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1054,7 +993,7 @@
       <c r="N5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="21" t="s">
         <v>30</v>
       </c>
       <c r="P5" s="10" t="s">
@@ -1066,7 +1005,7 @@
       <c r="R5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="21" t="s">
         <v>34</v>
       </c>
       <c r="T5" s="10" t="s">
@@ -1078,10 +1017,18 @@
       <c r="V5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="W5" s="35"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="36"/>
+      <c r="W5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5"/>
@@ -1114,212 +1061,190 @@
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="2"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
       <c r="V7" s="2"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="25"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="14"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="18"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
       <c r="S9" s="1"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
       <c r="V9" s="2"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
       <c r="S10" s="1"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="2"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="2"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="22"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="2"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="40"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="28"/>
       <c r="T13" s="31"/>
       <c r="U13" s="31"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="4"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
